--- a/medicine/Autisme/Jessica_Kingsley_Publishers/Jessica_Kingsley_Publishers.xlsx
+++ b/medicine/Autisme/Jessica_Kingsley_Publishers/Jessica_Kingsley_Publishers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jessica Kingsley Publishers (JKP) est une maison d'édition indépendante multinationale, basée à Londres, et fondée en 1987 par Jessica Kingsley. JKP publie des ouvrages concernant les sciences sociales et les sciences du comportement, avec une attention particulière quant à l'art-thérapie et aux troubles du spectre de l'autisme, respectivement. En 2004, la société a ouvert un bureau Américain à Philadelphie.
 Jessica Kingsley Publishers est l'éditeur original de l'autobiographie de Donna Williams, Si on me touche, je n'existe plus.
@@ -512,9 +524,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2007, lors de la première année des Independent Publishers Awards, la maison remporte le van Tulleken Publisher of the Year Award pour « le meilleur de l'édition indépendante au Royaume-Uni », et le Taylor Wessing Academic &amp; Professional Publisher of the Year award[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2007, lors de la première année des Independent Publishers Awards, la maison remporte le van Tulleken Publisher of the Year Award pour « le meilleur de l'édition indépendante au Royaume-Uni », et le Taylor Wessing Academic &amp; Professional Publisher of the Year award,.
 </t>
         </is>
       </c>
